--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,442 +35,454 @@
     <t xml:space="preserve">ISS</t>
   </si>
   <si>
-    <t xml:space="preserve">X2018.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.04.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.08.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.08.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.08.03</t>
+    <t xml:space="preserve">2018-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-10</t>
   </si>
 </sst>
 </file>
@@ -845,7 +857,7 @@
         <v>-0.0473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3648</v>
+        <v>1.9471</v>
       </c>
       <c r="G2" t="n">
         <v>0.4149</v>
@@ -868,7 +880,7 @@
         <v>-2.1277</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7269</v>
+        <v>0.4897</v>
       </c>
       <c r="G3" t="n">
         <v>0.9917</v>
@@ -891,7 +903,7 @@
         <v>6.2802</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0052</v>
+        <v>1.9981</v>
       </c>
       <c r="G4" t="n">
         <v>-0.0409</v>
@@ -914,7 +926,7 @@
         <v>4.6818</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1786</v>
+        <v>0.1911</v>
       </c>
       <c r="G5" t="n">
         <v>-0.9415</v>
@@ -937,7 +949,7 @@
         <v>0.0868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3579</v>
+        <v>0.1431</v>
       </c>
       <c r="G6" t="n">
         <v>1.0331</v>
@@ -960,7 +972,7 @@
         <v>1.692</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1528</v>
+        <v>-1.1905</v>
       </c>
       <c r="G7" t="n">
         <v>-1.1861</v>
@@ -983,7 +995,7 @@
         <v>-1.8771</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7653</v>
+        <v>-3.2289</v>
       </c>
       <c r="G8" t="n">
         <v>-1.4487</v>
@@ -1006,7 +1018,7 @@
         <v>-0.4348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2571</v>
+        <v>0.0498</v>
       </c>
       <c r="G9" t="n">
         <v>0.042</v>
@@ -1029,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-1.5928</v>
       </c>
       <c r="G10" t="n">
         <v>0.4618</v>
@@ -1052,7 +1064,7 @@
         <v>0.131</v>
       </c>
       <c r="F11" t="n">
-        <v>1.9487</v>
+        <v>0.4047</v>
       </c>
       <c r="G11" t="n">
         <v>-0.4597</v>
@@ -1075,7 +1087,7 @@
         <v>0.785</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1761</v>
+        <v>0.0504</v>
       </c>
       <c r="G12" t="n">
         <v>0.3359</v>
@@ -1098,7 +1110,7 @@
         <v>-1.601</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0504</v>
+        <v>0.7049</v>
       </c>
       <c r="G13" t="n">
         <v>0.7531</v>
@@ -1121,7 +1133,7 @@
         <v>2.9464</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8067</v>
+        <v>1.55</v>
       </c>
       <c r="G14" t="n">
         <v>1.1213</v>
@@ -1144,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9657</v>
+        <v>-0.3939</v>
       </c>
       <c r="G15" t="n">
         <v>-0.0411</v>
@@ -1167,7 +1179,7 @@
         <v>-3.2038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6796</v>
+        <v>-0.7909</v>
       </c>
       <c r="G16" t="n">
         <v>0.2465</v>
@@ -1190,7 +1202,7 @@
         <v>-1.6328</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.75</v>
+        <v>-0.3488</v>
       </c>
       <c r="G17" t="n">
         <v>-0.6967</v>
@@ -1213,7 +1225,7 @@
         <v>-1.3908</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1259</v>
+        <v>-0.1</v>
       </c>
       <c r="G18" t="n">
         <v>-1.6509</v>
@@ -1236,7 +1248,7 @@
         <v>3.0027</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0593</v>
+        <v>0.6006</v>
       </c>
       <c r="G19" t="n">
         <v>1.6786</v>
@@ -1259,7 +1271,7 @@
         <v>0.3534</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8485</v>
+        <v>-0.597</v>
       </c>
       <c r="G20" t="n">
         <v>0.2476</v>
@@ -1282,7 +1294,7 @@
         <v>-3.081</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.6333</v>
+        <v>-1.6266</v>
       </c>
       <c r="G21" t="n">
         <v>-1.3174</v>
@@ -1305,7 +1317,7 @@
         <v>-0.2725</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6541</v>
+        <v>2.8746</v>
       </c>
       <c r="G22" t="n">
         <v>-2.4197</v>
@@ -1328,7 +1340,7 @@
         <v>-0.2732</v>
       </c>
       <c r="F23" t="n">
-        <v>-8.123</v>
+        <v>0.6429</v>
       </c>
       <c r="G23" t="n">
         <v>-0.4703</v>
@@ -1351,7 +1363,7 @@
         <v>-2.6484</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0337</v>
+        <v>-3.7347</v>
       </c>
       <c r="G24" t="n">
         <v>-1.3316</v>
@@ -1374,7 +1386,7 @@
         <v>-0.2345</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5654</v>
+        <v>0.7912</v>
       </c>
       <c r="G25" t="n">
         <v>-1.6543</v>
@@ -1397,7 +1409,7 @@
         <v>-1.6455</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.9813</v>
+        <v>-0.3292</v>
       </c>
       <c r="G26" t="n">
         <v>-0.3984</v>
@@ -1420,7 +1432,7 @@
         <v>2.4857</v>
       </c>
       <c r="F27" t="n">
-        <v>2.3491</v>
+        <v>2.6931</v>
       </c>
       <c r="G27" t="n">
         <v>3.1111</v>
@@ -1443,7 +1455,7 @@
         <v>-1.5858</v>
       </c>
       <c r="F28" t="n">
-        <v>17.8276</v>
+        <v>-1.9297</v>
       </c>
       <c r="G28" t="n">
         <v>-1.5517</v>
@@ -1466,7 +1478,7 @@
         <v>-1.7062</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.1778</v>
+        <v>-2.775</v>
       </c>
       <c r="G29" t="n">
         <v>-1.007</v>
@@ -1489,7 +1501,7 @@
         <v>1.7358</v>
       </c>
       <c r="F30" t="n">
-        <v>13.3853</v>
+        <v>3.944</v>
       </c>
       <c r="G30" t="n">
         <v>0.3538</v>
@@ -1512,7 +1524,7 @@
         <v>-1.2796</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.3032</v>
+        <v>-1.1483</v>
       </c>
       <c r="G31" t="n">
         <v>-1.6307</v>
@@ -1535,7 +1547,7 @@
         <v>3.1685</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1419</v>
+        <v>3.9899</v>
       </c>
       <c r="G32" t="n">
         <v>1.1649</v>
@@ -1558,7 +1570,7 @@
         <v>-0.1396</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.1656</v>
       </c>
       <c r="G33" t="n">
         <v>0.8857</v>
@@ -1581,7 +1593,7 @@
         <v>1.3979</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.1123</v>
       </c>
       <c r="G34" t="n">
         <v>0.5707</v>
@@ -1604,7 +1616,7 @@
         <v>-3.7684</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1218</v>
+        <v>-1.7866</v>
       </c>
       <c r="G35" t="n">
         <v>-2.5753</v>
@@ -1627,7 +1639,7 @@
         <v>0.2865</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0811</v>
+        <v>1.0053</v>
       </c>
       <c r="G36" t="n">
         <v>-0.4928</v>
@@ -1650,7 +1662,7 @@
         <v>-2.9524</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0608</v>
+        <v>-0.0948</v>
       </c>
       <c r="G37" t="n">
         <v>0.4052</v>
@@ -1673,7 +1685,7 @@
         <v>17.7625</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.518</v>
       </c>
       <c r="G38" t="n">
         <v>5.5605</v>
@@ -1696,7 +1708,7 @@
         <v>3.4167</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5474</v>
+        <v>0.4673</v>
       </c>
       <c r="G39" t="n">
         <v>-3.0586</v>
@@ -1719,7 +1731,7 @@
         <v>1.5713</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0202</v>
+        <v>1.1163</v>
       </c>
       <c r="G40" t="n">
         <v>0.1315</v>
@@ -1742,7 +1754,7 @@
         <v>-2.4197</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0806</v>
+        <v>-1.5639</v>
       </c>
       <c r="G41" t="n">
         <v>-1.0941</v>
@@ -1765,7 +1777,7 @@
         <v>1.3821</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3834</v>
+        <v>-1.1682</v>
       </c>
       <c r="G42" t="n">
         <v>-1.6372</v>
@@ -1788,7 +1800,7 @@
         <v>-1.1227</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.7494</v>
       </c>
       <c r="G43" t="n">
         <v>-1.2146</v>
@@ -1811,7 +1823,7 @@
         <v>-1.3788</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-0.4812</v>
       </c>
       <c r="G44" t="n">
         <v>-1.184</v>
@@ -1834,7 +1846,7 @@
         <v>2.3026</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0603</v>
+        <v>0.4836</v>
       </c>
       <c r="G45" t="n">
         <v>2.1659</v>
@@ -1857,7 +1869,7 @@
         <v>0.7235</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0603</v>
+        <v>0.2887</v>
       </c>
       <c r="G46" t="n">
         <v>0.8119</v>
@@ -1880,7 +1892,7 @@
         <v>-0.2394</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0603</v>
+        <v>1.7754</v>
       </c>
       <c r="G47" t="n">
         <v>0.9843</v>
@@ -1903,7 +1915,7 @@
         <v>0.84</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0804</v>
+        <v>2.9232</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1926,7 +1938,7 @@
         <v>0.0793</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0402</v>
+        <v>0.8704</v>
       </c>
       <c r="G49" t="n">
         <v>-0.0886</v>
@@ -1949,7 +1961,7 @@
         <v>-0.1189</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.1205</v>
+        <v>1.0899</v>
       </c>
       <c r="G50" t="n">
         <v>0.2661</v>
@@ -1972,7 +1984,7 @@
         <v>-0.3968</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.0201</v>
+        <v>-0.2695</v>
       </c>
       <c r="G51" t="n">
         <v>-0.6192</v>
@@ -1995,7 +2007,7 @@
         <v>0.6375</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0805</v>
+        <v>0.4757</v>
       </c>
       <c r="G52" t="n">
         <v>-0.6231</v>
@@ -2018,7 +2030,7 @@
         <v>0.5146</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0201</v>
+        <v>0.5861</v>
       </c>
       <c r="G53" t="n">
         <v>-0.2239</v>
@@ -2041,7 +2053,7 @@
         <v>-0.3545</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>-0.5827</v>
       </c>
       <c r="G54" t="n">
         <v>0.9425</v>
@@ -2064,7 +2076,7 @@
         <v>0.0791</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0402</v>
+        <v>-0.6763</v>
       </c>
       <c r="G55" t="n">
         <v>-1.2895</v>
@@ -2110,7 +2122,7 @@
         <v>0.1575</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0402</v>
+        <v>-0.9986</v>
       </c>
       <c r="G57" t="n">
         <v>-0.2715</v>
@@ -2133,7 +2145,7 @@
         <v>-0.6289</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0201</v>
+        <v>-1.7882</v>
       </c>
       <c r="G58" t="n">
         <v>-1.6334</v>
@@ -2156,7 +2168,7 @@
         <v>-0.1582</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5232</v>
+        <v>-0.2801</v>
       </c>
       <c r="G59" t="n">
         <v>1.107</v>
@@ -2179,7 +2191,7 @@
         <v>-1.5848</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1802</v>
+        <v>-0.9831</v>
       </c>
       <c r="G60" t="n">
         <v>-0.0456</v>
@@ -2202,7 +2214,7 @@
         <v>3.0596</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1003</v>
+        <v>0.4728</v>
       </c>
       <c r="G61" t="n">
         <v>1.6887</v>
@@ -2225,7 +2237,7 @@
         <v>1.4062</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4208</v>
+        <v>0.4235</v>
       </c>
       <c r="G62" t="n">
         <v>0.3591</v>
@@ -2248,7 +2260,7 @@
         <v>-3.2357</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.237</v>
+        <v>-0.3749</v>
       </c>
       <c r="G63" t="n">
         <v>-3.3989</v>
@@ -2271,7 +2283,7 @@
         <v>-2.9459</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2828</v>
+        <v>-4.9389</v>
       </c>
       <c r="G64" t="n">
         <v>-0.463</v>
@@ -2294,7 +2306,7 @@
         <v>2.0098</v>
       </c>
       <c r="F65" t="n">
-        <v>1.5802</v>
+        <v>1.3854</v>
       </c>
       <c r="G65" t="n">
         <v>1.1628</v>
@@ -2317,7 +2329,7 @@
         <v>-1.0856</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2992</v>
+        <v>-1.1713</v>
       </c>
       <c r="G66" t="n">
         <v>-0.2759</v>
@@ -2340,7 +2352,7 @@
         <v>-1.0569</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3801</v>
+        <v>0.0494</v>
       </c>
       <c r="G67" t="n">
         <v>0.0461</v>
@@ -2363,7 +2375,7 @@
         <v>-0.5752</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7631</v>
+        <v>1.0859</v>
       </c>
       <c r="G68" t="n">
         <v>0.1382</v>
@@ -2386,7 +2398,7 @@
         <v>-0.5372</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1594</v>
+        <v>-0.7813</v>
       </c>
       <c r="G69" t="n">
         <v>-0.8283</v>
@@ -2409,7 +2421,7 @@
         <v>0.9555</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.0798</v>
+        <v>2.7067</v>
       </c>
       <c r="G70" t="n">
         <v>1.0587</v>
@@ -2432,7 +2444,7 @@
         <v>-1.07</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>-0.4312</v>
       </c>
       <c r="G71" t="n">
         <v>0.3333</v>
@@ -2455,7 +2467,7 @@
         <v>-0.9983</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2397</v>
+        <v>0.9143</v>
       </c>
       <c r="G72" t="n">
         <v>0.2848</v>
@@ -2478,7 +2490,7 @@
         <v>8.7395</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.0399</v>
+        <v>1.9552</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2501,7 +2513,7 @@
         <v>-2.3184</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1595</v>
+        <v>0.0468</v>
       </c>
       <c r="G74" t="n">
         <v>0.3786</v>
@@ -2524,7 +2536,7 @@
         <v>1.068</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>-1.1688</v>
       </c>
       <c r="G75" t="n">
         <v>1.3673</v>
@@ -2547,7 +2559,7 @@
         <v>-0.8219</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>-0.3311</v>
       </c>
       <c r="G76" t="n">
         <v>-0.093</v>
@@ -2570,7 +2582,7 @@
         <v>-1.0655</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.0399</v>
+        <v>0.9492</v>
       </c>
       <c r="G77" t="n">
         <v>0.5121</v>
@@ -2593,7 +2605,7 @@
         <v>-1.3562</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1598</v>
+        <v>0.094</v>
       </c>
       <c r="G78" t="n">
         <v>0.1853</v>
@@ -2662,7 +2674,7 @@
         <v>-0.2788</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0797</v>
+        <v>0.9754</v>
       </c>
       <c r="G81" t="n">
         <v>-1.6393</v>
@@ -2685,7 +2697,7 @@
         <v>-1.278</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1.7019</v>
       </c>
       <c r="G82" t="n">
         <v>-0.6019</v>
@@ -2708,7 +2720,7 @@
         <v>1.0113</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1592</v>
+        <v>6.9652</v>
       </c>
       <c r="G83" t="n">
         <v>1.7699</v>
@@ -2731,7 +2743,7 @@
         <v>1.2815</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1994</v>
+        <v>-0.2537</v>
       </c>
       <c r="G84" t="n">
         <v>0.2288</v>
@@ -2754,7 +2766,7 @@
         <v>-1.3049</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3979</v>
+        <v>1.2717</v>
       </c>
       <c r="G85" t="n">
         <v>0.1826</v>
@@ -2777,7 +2789,7 @@
         <v>3.6458</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2797</v>
+        <v>2.2604</v>
       </c>
       <c r="G86" t="n">
         <v>-0.5469</v>
@@ -2800,7 +2812,7 @@
         <v>0.8891</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1195</v>
+        <v>-0.4503</v>
       </c>
       <c r="G87" t="n">
         <v>0.8249</v>
@@ -2823,7 +2835,7 @@
         <v>-4.6743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0399</v>
+        <v>0.9046</v>
       </c>
       <c r="G88" t="n">
         <v>0.4091</v>
@@ -2846,7 +2858,7 @@
         <v>1.5675</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1994</v>
+        <v>0.652</v>
       </c>
       <c r="G89" t="n">
         <v>-2.8067</v>
@@ -2869,7 +2881,7 @@
         <v>-0.9893</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.199</v>
+        <v>-0.7692</v>
       </c>
       <c r="G90" t="n">
         <v>-1.537</v>
@@ -2892,7 +2904,7 @@
         <v>-1.9984</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>-0.7344</v>
       </c>
       <c r="G91" t="n">
         <v>0.2365</v>
@@ -2915,7 +2927,7 @@
         <v>2.3654</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0399</v>
+        <v>-0.2877</v>
       </c>
       <c r="G92" t="n">
         <v>0.7079</v>
@@ -2938,7 +2950,7 @@
         <v>1.0359</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0797</v>
+        <v>-0.7832</v>
       </c>
       <c r="G93" t="n">
         <v>0.5155</v>
@@ -2961,7 +2973,7 @@
         <v>-2.7997</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0797</v>
+        <v>-0.3739</v>
       </c>
       <c r="G94" t="n">
         <v>1.1655</v>
@@ -2984,7 +2996,7 @@
         <v>-0.4462</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>-0.4587</v>
       </c>
       <c r="G95" t="n">
         <v>-0.553</v>
@@ -3007,7 +3019,7 @@
         <v>-0.652</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0797</v>
+        <v>0.796</v>
       </c>
       <c r="G96" t="n">
         <v>-0.3244</v>
@@ -3030,7 +3042,7 @@
         <v>-2.1739</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.0398</v>
+        <v>2.0366</v>
       </c>
       <c r="G97" t="n">
         <v>0.8368</v>
@@ -3099,7 +3111,7 @@
         <v>3.3047</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1.5334</v>
       </c>
       <c r="G100" t="n">
         <v>0.1847</v>
@@ -3168,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2.6725</v>
+        <v>1.5931</v>
       </c>
       <c r="G103" t="n">
         <v>0.0455</v>
@@ -3179,22 +3191,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>-1.1364</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-1.4188</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>-1.4486</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.3886</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>0.9248</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>-0.0455</v>
       </c>
     </row>
     <row r="105">
@@ -3202,22 +3214,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>0.5409</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-0.0928</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-0.2526</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>-1.9967</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>-0.6375</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="106">
@@ -3225,22 +3237,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5409</v>
+        <v>-0.2017</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.0928</v>
+        <v>-0.8364</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.2526</v>
+        <v>-0.5526</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.9967</v>
+        <v>-1.0395</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>-1.684</v>
       </c>
       <c r="G106" t="n">
-        <v>1.4117</v>
+        <v>-0.1347</v>
       </c>
     </row>
     <row r="107">
@@ -3248,22 +3260,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2017</v>
+        <v>1.1456</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.8364</v>
+        <v>2.1556</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.5526</v>
+        <v>0.3705</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.0395</v>
+        <v>-0.5462</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.8972</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.1347</v>
+        <v>-0.7194</v>
       </c>
     </row>
     <row r="108">
@@ -3271,22 +3283,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>1.1456</v>
+        <v>-0.0666</v>
       </c>
       <c r="C108" t="n">
-        <v>2.1556</v>
+        <v>0.367</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3705</v>
+        <v>-0.4844</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5462</v>
+        <v>2.2391</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>0.8893</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.7194</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="109">
@@ -3294,22 +3306,22 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.0666</v>
+        <v>1.5333</v>
       </c>
       <c r="C109" t="n">
-        <v>0.367</v>
+        <v>-0.1371</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4844</v>
+        <v>-0.0927</v>
       </c>
       <c r="E109" t="n">
-        <v>2.2391</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>0.7211</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4076</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="110">
@@ -3317,22 +3329,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>1.5333</v>
+        <v>-1.1162</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1371</v>
+        <v>0.2746</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.0927</v>
+        <v>0.4872</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.0455</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>12.1718</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1804</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="111">
@@ -3340,22 +3352,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.1162</v>
+        <v>-0.3984</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2746</v>
+        <v>-0.5933</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4872</v>
+        <v>-1.2237</v>
       </c>
       <c r="E111" t="n">
-        <v>2.0455</v>
+        <v>-2.7738</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>0.8156</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1351</v>
+        <v>1.8885</v>
       </c>
     </row>
     <row r="112">
@@ -3363,22 +3375,22 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.3984</v>
+        <v>-0.7333</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.5933</v>
+        <v>-2.112</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.2237</v>
+        <v>-0.9818</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.7738</v>
+        <v>-0.9579</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>-0.1407</v>
       </c>
       <c r="G112" t="n">
-        <v>1.8885</v>
+        <v>-1.5887</v>
       </c>
     </row>
     <row r="113">
@@ -3386,22 +3398,22 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.7333</v>
+        <v>0.4701</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.112</v>
+        <v>-1.1257</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.9818</v>
+        <v>-2.5732</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.9579</v>
+        <v>0.9462</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1.1272</v>
       </c>
       <c r="G113" t="n">
-        <v>-1.5887</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="114">
@@ -3409,22 +3421,22 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4701</v>
+        <v>0.4011</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.1257</v>
+        <v>-0.9962</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.5732</v>
+        <v>-0.0727</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9462</v>
+        <v>5.603</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1.2887</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.0448</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="115">
@@ -3432,22 +3444,22 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4011</v>
+        <v>0.466</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.9962</v>
+        <v>-1.4375</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.0727</v>
+        <v>-3.4433</v>
       </c>
       <c r="E115" t="n">
-        <v>5.603</v>
+        <v>-2.5444</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.8597</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.0897</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="116">
@@ -3455,22 +3467,22 @@
         <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>0.466</v>
+        <v>0.9278</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.4375</v>
+        <v>0.4861</v>
       </c>
       <c r="D116" t="n">
-        <v>-3.4433</v>
+        <v>-1.3059</v>
       </c>
       <c r="E116" t="n">
-        <v>-2.5444</v>
+        <v>0.6679</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>0.1023</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.5837</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="117">
@@ -3478,22 +3490,22 @@
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9278</v>
+        <v>-1.6415</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4861</v>
+        <v>-1.4998</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.3059</v>
+        <v>-2.0356</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6679</v>
+        <v>0.9248</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>-0.8856</v>
       </c>
       <c r="G117" t="n">
-        <v>1.4002</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="118">
@@ -3501,22 +3513,22 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.6415</v>
+        <v>-0.8011</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.4998</v>
+        <v>-2.9224</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.0356</v>
+        <v>-0.2597</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9248</v>
+        <v>-3.6853</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>-0.6529</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.98</v>
+        <v>-1.3495</v>
       </c>
     </row>
     <row r="119">
@@ -3524,22 +3536,22 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.8011</v>
+        <v>-0.2019</v>
       </c>
       <c r="C119" t="n">
-        <v>-2.9224</v>
+        <v>0.4807</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.2597</v>
+        <v>0.026</v>
       </c>
       <c r="E119" t="n">
-        <v>-3.6853</v>
+        <v>1.8201</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.9685</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.3495</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="120">
@@ -3547,22 +3559,22 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2019</v>
+        <v>-0.2697</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4807</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.026</v>
+        <v>-2.6295</v>
       </c>
       <c r="E120" t="n">
-        <v>1.8201</v>
+        <v>-1.8485</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>-2.2953</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0912</v>
+        <v>-1.5945</v>
       </c>
     </row>
     <row r="121">
@@ -3570,22 +3582,22 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.2697</v>
+        <v>1.2847</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.5791</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.6295</v>
+        <v>2.1123</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.8485</v>
+        <v>1.904</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1.9635</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.5945</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="122">
@@ -3593,22 +3605,22 @@
         <v>127</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2847</v>
+        <v>-0.8011</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5791</v>
+        <v>-0.1752</v>
       </c>
       <c r="D122" t="n">
-        <v>2.1123</v>
+        <v>-1.8068</v>
       </c>
       <c r="E122" t="n">
-        <v>1.904</v>
+        <v>-0.528</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>-0.3095</v>
       </c>
       <c r="G122" t="n">
-        <v>1.5278</v>
+        <v>-1.368</v>
       </c>
     </row>
     <row r="123">
@@ -3616,22 +3628,22 @@
         <v>128</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.8011</v>
+        <v>0.9421</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1752</v>
+        <v>1.003</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.8068</v>
+        <v>0.5867</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.528</v>
+        <v>2.3377</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.368</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="124">
@@ -3639,22 +3651,22 @@
         <v>129</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9421</v>
+        <v>0.8</v>
       </c>
       <c r="C124" t="n">
-        <v>1.003</v>
+        <v>-2.0109</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5867</v>
+        <v>-1.7232</v>
       </c>
       <c r="E124" t="n">
-        <v>2.3377</v>
+        <v>1.3466</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>0.6885</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8784</v>
+        <v>-1.3749</v>
       </c>
     </row>
     <row r="125">
@@ -3662,22 +3674,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8</v>
+        <v>-0.1984</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.0109</v>
+        <v>-2.6096</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.7232</v>
+        <v>2.1041</v>
       </c>
       <c r="E125" t="n">
-        <v>1.3466</v>
+        <v>1.3287</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>0.6154</v>
       </c>
       <c r="G125" t="n">
-        <v>-1.3749</v>
+        <v>0.7435</v>
       </c>
     </row>
     <row r="126">
@@ -3685,22 +3697,22 @@
         <v>131</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1984</v>
+        <v>0.2651</v>
       </c>
       <c r="C126" t="n">
-        <v>-2.6096</v>
+        <v>-0.8065</v>
       </c>
       <c r="D126" t="n">
-        <v>2.1041</v>
+        <v>-2.4042</v>
       </c>
       <c r="E126" t="n">
-        <v>1.3287</v>
+        <v>-0.34</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7435</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="127">
@@ -3708,22 +3720,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2651</v>
+        <v>0.9914</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.8065</v>
+        <v>0.9441</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.4042</v>
+        <v>1.2453</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.34</v>
+        <v>0.3899</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="G127" t="n">
-        <v>1.5683</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="128">
@@ -3731,22 +3743,22 @@
         <v>133</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9914</v>
+        <v>0.4581</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9441</v>
+        <v>0.7015</v>
       </c>
       <c r="D128" t="n">
-        <v>1.2453</v>
+        <v>0.9626</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3899</v>
+        <v>3.2524</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>0.1698</v>
       </c>
       <c r="G128" t="n">
-        <v>1.0899</v>
+        <v>1.3477</v>
       </c>
     </row>
     <row r="129">
@@ -3754,22 +3766,22 @@
         <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4581</v>
+        <v>1.811</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7015</v>
+        <v>0.0774</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9626</v>
+        <v>-1.3771</v>
       </c>
       <c r="E129" t="n">
-        <v>3.2524</v>
+        <v>-0.7522</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>-2.8136</v>
       </c>
       <c r="G129" t="n">
-        <v>1.3477</v>
+        <v>-0.7092</v>
       </c>
     </row>
     <row r="130">
@@ -3777,22 +3789,22 @@
         <v>135</v>
       </c>
       <c r="B130" t="n">
-        <v>1.811</v>
+        <v>0.2587</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0774</v>
+        <v>0.5672</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.3771</v>
+        <v>1.3695</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.7522</v>
+        <v>2.558</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1.9533</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.7092</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="131">
@@ -3800,22 +3812,22 @@
         <v>136</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2587</v>
+        <v>-0.7742</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5672</v>
+        <v>-0.564</v>
       </c>
       <c r="D131" t="n">
-        <v>1.3695</v>
+        <v>-0.2649</v>
       </c>
       <c r="E131" t="n">
-        <v>2.558</v>
+        <v>0.2771</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>-1.2316</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2232</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="132">
@@ -3823,22 +3835,22 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.7742</v>
+        <v>0.1951</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.564</v>
+        <v>-0.1031</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2649</v>
+        <v>-0.2656</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2771</v>
+        <v>0.4146</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1.1777</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0891</v>
+        <v>-0.7566</v>
       </c>
     </row>
     <row r="133">
@@ -3846,22 +3858,22 @@
         <v>138</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1951</v>
+        <v>1.7521</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1031</v>
+        <v>0.6968</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.2656</v>
+        <v>2.3702</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4146</v>
+        <v>2.2936</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>2.0199</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.7566</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="134">
@@ -3869,22 +3881,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="n">
-        <v>1.7521</v>
+        <v>-0.4464</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6968</v>
+        <v>-9.1235</v>
       </c>
       <c r="D134" t="n">
-        <v>2.3702</v>
+        <v>0.5983</v>
       </c>
       <c r="E134" t="n">
-        <v>2.2936</v>
+        <v>1.1211</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>-0.1678</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.1794</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="135">
@@ -3892,22 +3904,22 @@
         <v>140</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.4464</v>
+        <v>-0.7047</v>
       </c>
       <c r="C135" t="n">
-        <v>-9.1235</v>
+        <v>2.5945</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5983</v>
+        <v>-0.4138</v>
       </c>
       <c r="E135" t="n">
-        <v>1.1211</v>
+        <v>-0.2217</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1.7479</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1797</v>
+        <v>2.1076</v>
       </c>
     </row>
     <row r="136">
@@ -3915,22 +3927,22 @@
         <v>141</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.7047</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>2.5945</v>
+        <v>-0.6322</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.4138</v>
+        <v>-0.1298</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.2217</v>
+        <v>1.0222</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>0.0991</v>
       </c>
       <c r="G136" t="n">
-        <v>2.1076</v>
+        <v>0.4831</v>
       </c>
     </row>
     <row r="137">
@@ -3941,19 +3953,19 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.6322</v>
+        <v>1.7151</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1298</v>
+        <v>0.13</v>
       </c>
       <c r="E137" t="n">
-        <v>1.0222</v>
+        <v>-1.1879</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>-0.5281</v>
       </c>
       <c r="G137" t="n">
-        <v>0.4831</v>
+        <v>-0.2185</v>
       </c>
     </row>
     <row r="138">
@@ -3961,22 +3973,22 @@
         <v>143</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>-1.0968</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7151</v>
+        <v>1.3054</v>
       </c>
       <c r="D138" t="n">
-        <v>0.13</v>
+        <v>2.0254</v>
       </c>
       <c r="E138" t="n">
-        <v>-1.1879</v>
+        <v>0.4898</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>0.8626</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.2185</v>
+        <v>-0.6132</v>
       </c>
     </row>
     <row r="139">
@@ -3984,22 +3996,22 @@
         <v>144</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.0968</v>
+        <v>-0.2609</v>
       </c>
       <c r="C139" t="n">
-        <v>1.3054</v>
+        <v>-0.6711</v>
       </c>
       <c r="D139" t="n">
-        <v>2.0254</v>
+        <v>0.3309</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4898</v>
+        <v>0.1329</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>0.5921</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.6132</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="140">
@@ -4007,22 +4019,22 @@
         <v>145</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.2609</v>
+        <v>0.7194</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.6711</v>
+        <v>1.2432</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3309</v>
+        <v>3.2471</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1329</v>
+        <v>1.2389</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1.4389</v>
       </c>
       <c r="G140" t="n">
-        <v>1.0577</v>
+        <v>1.3956</v>
       </c>
     </row>
     <row r="141">
@@ -4030,22 +4042,22 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7194</v>
+        <v>0.6494</v>
       </c>
       <c r="C141" t="n">
-        <v>1.2432</v>
+        <v>0.267</v>
       </c>
       <c r="D141" t="n">
-        <v>3.2471</v>
+        <v>1.1057</v>
       </c>
       <c r="E141" t="n">
-        <v>1.2389</v>
+        <v>-1.2675</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>-0.3546</v>
       </c>
       <c r="G141" t="n">
-        <v>1.3956</v>
+        <v>1.5484</v>
       </c>
     </row>
     <row r="142">
@@ -4053,22 +4065,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6494</v>
+        <v>0.7097</v>
       </c>
       <c r="C142" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1057</v>
+        <v>0.3402</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.2675</v>
+        <v>0.6197</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>-0.3235</v>
       </c>
       <c r="G142" t="n">
-        <v>1.5484</v>
+        <v>0.6353</v>
       </c>
     </row>
     <row r="143">
@@ -4076,22 +4088,22 @@
         <v>148</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7097</v>
+        <v>-0.1281</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>-1.3578</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3402</v>
+        <v>1.5742</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6197</v>
+        <v>-3.9155</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>-1.3307</v>
       </c>
       <c r="G143" t="n">
-        <v>0.6353</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="144">
@@ -4099,22 +4111,22 @@
         <v>149</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.1281</v>
+        <v>0.2566</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.3578</v>
+        <v>-1.3225</v>
       </c>
       <c r="D144" t="n">
-        <v>1.5742</v>
+        <v>-1.3352</v>
       </c>
       <c r="E144" t="n">
-        <v>-3.9155</v>
+        <v>1.1447</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>1.7105</v>
       </c>
       <c r="G144" t="n">
-        <v>0.2525</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="145">
@@ -4122,22 +4134,22 @@
         <v>150</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2566</v>
+        <v>-0.3839</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.3225</v>
+        <v>-2.0788</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.3352</v>
+        <v>-1.6433</v>
       </c>
       <c r="E145" t="n">
-        <v>1.1447</v>
+        <v>-0.2716</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>0.7439</v>
       </c>
       <c r="G145" t="n">
-        <v>0.2099</v>
+        <v>-1.3825</v>
       </c>
     </row>
     <row r="146">
@@ -4145,22 +4157,22 @@
         <v>151</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.3839</v>
+        <v>0.4496</v>
       </c>
       <c r="C146" t="n">
-        <v>-2.0788</v>
+        <v>2.1229</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.6433</v>
+        <v>-1.8919</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.2716</v>
+        <v>-0.6355</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>0.931</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.3825</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="147">
@@ -4168,22 +4180,114 @@
         <v>152</v>
       </c>
       <c r="B147" t="n">
-        <v>0.4496</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>2.1229</v>
+        <v>-1.0667</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.8919</v>
+        <v>2.855</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.6355</v>
+        <v>-2.2841</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>0.6679</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.0425</v>
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9591</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2488</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.0226</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.3476</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.3309</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-2.8682</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.8056</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-2.0926</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.5061</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8264</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5534</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.3176</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-1.4616</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-1.2306</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.5875</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.6305</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-3.8773</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.2919</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0328</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2.0684</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -483,6 +483,84 @@
   </si>
   <si>
     <t xml:space="preserve">2018-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-17</t>
   </si>
 </sst>
 </file>
@@ -4290,6 +4368,604 @@
         <v>-2.0684</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.6345</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-1.757</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.5508</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.3753</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.6466</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.0631</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-2.012</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-1.4358</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.7964</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.6221</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2.0557</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.5678</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.7492</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-3.8334</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-2.0638</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-3.864</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1.0057</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.6494</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.1161</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.7663</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.9903</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3.8869</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.1266</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.5256</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-1.561</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1.1949</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.2535</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.6834</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.6993</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.6651</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-2.8227</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3.7674</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.3177</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.7712</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.5739</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.1345</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.5066</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.9215</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.4337</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.3468</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.4714</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.2238</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.7002</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.0887</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4612</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.4713</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.0018</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.2506</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.8255</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.1222</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.2806</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.2405</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-0.1323</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.4473</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.0037</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.4503</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.7824</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.2353</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.1042</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3817</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.6979</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.2659</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.2976</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.8737</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.0634</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1822</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.0492</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.0594</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.6866</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.2644</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.6341</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.2338</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.2463</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.2762</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.4509</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.3093</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.5885</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-1.4815</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.3291</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.6206</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.3802</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-1.0526</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-2.4752</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.1915</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-0.223</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.3817</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-6.1856</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-1.6211</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.8813</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.8941</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.447</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.4232</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.8496</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-2.3459</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-2.1043</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2.0749</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.6506</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.3635</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.6123</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2119</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.4606</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-4.1949</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-2.111</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8057</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.4834</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.5044</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1922</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-2.9379</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.0916</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-1.8806</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.8641</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5069</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.3836</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.6694</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-1.3958</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.5812</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.4902</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-0.5044</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.3851</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.5236</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.3585</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.6098</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.2304</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
